--- a/output_data/charts/capacity-FranklinCounty-0500000US39049.xlsx
+++ b/output_data/charts/capacity-FranklinCounty-0500000US39049.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -498,28 +498,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>250000</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20000</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>52920</c:v>
+                  <c:v>52.92</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>83200</c:v>
+                  <c:v>83.2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>274540</c:v>
+                  <c:v>274.54</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>72600</c:v>
+                  <c:v>72.59999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -683,7 +683,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>248000</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -707,7 +707,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3624000</c:v>
+                  <c:v>3624</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -847,61 +847,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4640</c:v>
+                  <c:v>4.640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16050</c:v>
+                  <c:v>16.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1300</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51900</c:v>
+                  <c:v>51.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>354650</c:v>
+                  <c:v>354.65</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>666200</c:v>
+                  <c:v>666.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2096380</c:v>
+                  <c:v>2096.38</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1292100</c:v>
+                  <c:v>1292.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>149900</c:v>
+                  <c:v>149.9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>907400</c:v>
+                  <c:v>907.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>759865</c:v>
+                  <c:v>759.865</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>681830</c:v>
+                  <c:v>681.83</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1450970</c:v>
+                  <c:v>1450.97</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1709300</c:v>
+                  <c:v>1709.3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2603440</c:v>
+                  <c:v>2603.44</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5233278</c:v>
+                  <c:v>5233.278</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6264340</c:v>
+                  <c:v>6264.34</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14609679</c:v>
+                  <c:v>14609.679</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8158382</c:v>
+                  <c:v>8158.382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1211,10 +1211,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>10000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18000</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1241,7 +1241,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1250,7 +1250,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30000</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>10000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>18000</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>4640</v>
+        <v>4.640000000000001</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>16050</v>
+        <v>16.05</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>51900</v>
+        <v>51.9</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -1996,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>354650</v>
+        <v>354.65</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>666200</v>
+        <v>666.2</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>2096380</v>
+        <v>2096.38</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2065,13 +2065,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>1292100</v>
+        <v>1292.1</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>30000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>149900</v>
+        <v>149.9</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -2108,10 +2108,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>248000</v>
+        <v>248</v>
       </c>
       <c r="E17" s="2">
-        <v>907400</v>
+        <v>907.4</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>759865</v>
+        <v>759.865</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2151,13 +2151,13 @@
         <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>681830</v>
+        <v>681.83</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>1450970</v>
+        <v>1450.97</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2197,13 +2197,13 @@
         <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>1709300</v>
+        <v>1709.3</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>2603440</v>
+        <v>2603.44</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2243,13 +2243,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>52920</v>
+        <v>52.92</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>5233278</v>
+        <v>5233.278</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2266,13 +2266,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>83200</v>
+        <v>83.2</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>6264340</v>
+        <v>6264.34</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>274540</v>
+        <v>274.54</v>
       </c>
       <c r="D25" s="2">
-        <v>3624000</v>
+        <v>3624</v>
       </c>
       <c r="E25" s="2">
-        <v>14609679</v>
+        <v>14609.679</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>72600</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>8158382</v>
+        <v>8158.382</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-FranklinCounty-0500000US39049.xlsx
+++ b/output_data/charts/capacity-FranklinCounty-0500000US39049.xlsx
@@ -519,7 +519,7 @@
                   <c:v>274.54</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>72.59999999999999</c:v>
+                  <c:v>126.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,13 +895,13 @@
                   <c:v>5233.278</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6264.34</c:v>
+                  <c:v>6265.64</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>14609.679</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8158.382</c:v>
+                  <c:v>12472.578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>6264.34</v>
+        <v>6265.64</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>72.59999999999999</v>
+        <v>126.36</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>8158.382</v>
+        <v>12472.578</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
